--- a/CVX_Kenya/Interventions/New folder/num_hect/2360.xlsx
+++ b/CVX_Kenya/Interventions/New folder/num_hect/2360.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\CVX_Kenya\Interventions\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\CVX_Kenya\Interventions\New folder\num_hect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B789C747-33F9-4E4E-BEB1-FE07C047553F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31848D0D-3518-43E4-85B2-07F1EC05B399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7365" yWindow="2460" windowWidth="20460" windowHeight="10890" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -848,9 +848,6 @@
     <t>Capital - Machines</t>
   </si>
   <si>
-    <t>Residential and other sectors</t>
-  </si>
-  <si>
     <t>Absolute</t>
   </si>
   <si>
@@ -882,6 +879,9 @@
   </si>
   <si>
     <t>ok</t>
+  </si>
+  <si>
+    <t>Residential</t>
   </si>
 </sst>
 </file>
@@ -1488,8 +1488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1520,17 +1520,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="C2" t="s">
         <v>92</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E2" s="2">
         <f>main!C35</f>
-        <v>-4.9350649350649242E-2</v>
+        <v>-4.1197579137956753E-3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1580,16 +1580,16 @@
         <v>9</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1692,16 +1692,16 @@
         <v>205</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -2107,16 +2107,16 @@
         <v>205</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2943,11 +2943,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3099,7 +3099,7 @@
         <v>246</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="26" t="s">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -3167,7 +3167,7 @@
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13" t="s">
@@ -3270,10 +3270,10 @@
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="F19" s="14" t="s">
         <v>273</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>274</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>192</v>
@@ -3542,8 +3542,8 @@
         <v>259</v>
       </c>
       <c r="C35" s="35">
-        <f>-C17*C18*C5/1000</f>
-        <v>-4.9350649350649242E-2</v>
+        <f>-C17*C18*C5/1000*C14</f>
+        <v>-4.1197579137956753E-3</v>
       </c>
       <c r="D35" s="31"/>
       <c r="E35" s="31"/>
@@ -3595,7 +3595,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B2" s="7">
         <v>20</v>
